--- a/gap_result_0_Asian.xlsx
+++ b/gap_result_0_Asian.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.002724682911914904</v>
+        <v>-0.00945059111231282</v>
       </c>
       <c r="D2">
-        <v>0.7558697855695423</v>
+        <v>0.2914002659430666</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.00198862477992213</v>
+        <v>-0.005370364067292489</v>
       </c>
       <c r="D3">
-        <v>0.9388351549146949</v>
+        <v>0.8392974999378028</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.000483851116077294</v>
+        <v>-0.0003813611876685163</v>
       </c>
       <c r="D4">
-        <v>0.9760149303948211</v>
+        <v>0.9814835019436898</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.02975734701060837</v>
+        <v>-0.04036938516559087</v>
       </c>
       <c r="D5">
-        <v>0.05666751663709108</v>
+        <v>0.01174894605385915</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -546,10 +546,10 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.009604929541067548</v>
+        <v>-9.965798733745958E-05</v>
       </c>
       <c r="D6">
-        <v>0.4627491304695137</v>
+        <v>0.9940479401274788</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/gap_result_0_Asian.xlsx
+++ b/gap_result_0_Asian.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.00945059111231282</v>
+        <v>-0.008825814162550349</v>
       </c>
       <c r="D2">
-        <v>0.2914002659430666</v>
+        <v>0.3162898291358526</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.005370364067292489</v>
+        <v>-0.005770598732055543</v>
       </c>
       <c r="D3">
-        <v>0.8392974999378028</v>
+        <v>0.8123701425340902</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.0003813611876685163</v>
+        <v>-0.0004509691577657092</v>
       </c>
       <c r="D4">
-        <v>0.9814835019436898</v>
+        <v>0.9774966417007671</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.04036938516559087</v>
+        <v>-0.04411157407277996</v>
       </c>
       <c r="D5">
-        <v>0.01174894605385915</v>
+        <v>0.004412168821736396</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-9.965798733745958E-05</v>
+        <v>0.004710255772860605</v>
       </c>
       <c r="D6">
-        <v>0.9940479401274788</v>
+        <v>0.7130064578910773</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_0_Asian.xlsx
+++ b/gap_result_0_Asian.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.008825814162550349</v>
+        <v>-0.009447786835218172</v>
       </c>
       <c r="D2">
-        <v>0.3162898291358526</v>
+        <v>0.2914863520924865</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.005770598732055543</v>
+        <v>-0.005170106406180509</v>
       </c>
       <c r="D3">
-        <v>0.8123701425340902</v>
+        <v>0.8451945785137369</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.0004509691577657092</v>
+        <v>-0.0002692257307427837</v>
       </c>
       <c r="D4">
-        <v>0.9774966417007671</v>
+        <v>0.9869259582702561</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.04411157407277996</v>
+        <v>-0.04037707836407878</v>
       </c>
       <c r="D5">
-        <v>0.004412168821736396</v>
+        <v>0.01172309354172125</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.004710255772860605</v>
+        <v>-0.0001037154587875625</v>
       </c>
       <c r="D6">
-        <v>0.7130064578910773</v>
+        <v>0.9938048804707529</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_0_Asian.xlsx
+++ b/gap_result_0_Asian.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.009447786835218172</v>
+        <v>-0.009943138132662441</v>
       </c>
       <c r="D2">
-        <v>0.2914863520924865</v>
+        <v>0.2674445217019132</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.005170106406180509</v>
+        <v>-0.005628143457973296</v>
       </c>
       <c r="D3">
-        <v>0.8451945785137369</v>
+        <v>0.831851863340989</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.0002692257307427837</v>
+        <v>-0.0005921381874265941</v>
       </c>
       <c r="D4">
-        <v>0.9869259582702561</v>
+        <v>0.9712800386758309</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.04037707836407878</v>
+        <v>-0.04040710891177769</v>
       </c>
       <c r="D5">
-        <v>0.01172309354172125</v>
+        <v>0.01174914266617146</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.0001037154587875625</v>
+        <v>-0.000128882860665475</v>
       </c>
       <c r="D6">
-        <v>0.9938048804707529</v>
+        <v>0.9923097407076347</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_0_Asian.xlsx
+++ b/gap_result_0_Asian.xlsx
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
